--- a/analysis_anp_updated.xlsx
+++ b/analysis_anp_updated.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J129"/>
+  <dimension ref="A1:J80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,35 +488,35 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AR019_1</t>
+          <t>AR023_1</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0.945260731777586</v>
       </c>
       <c r="C2" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0.8617205428571429</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CONCLUÍDO</t>
+          <t>VIGENTE</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>444</t>
+          <t>333</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -528,7 +528,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>AR020_1</t>
+          <t>AR025_1</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -538,11 +538,11 @@
         <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>0.999999954254401</v>
+        <v>1</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CONCLUÍDO</t>
+          <t>VIGENTE</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -552,11 +552,11 @@
         <v>3</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>433</t>
+          <t>434</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -568,35 +568,35 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>AR021_1</t>
+          <t>AR028_1</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0.873149394347241</v>
       </c>
       <c r="C4" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0.9626249115</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CONCLUÍDO</t>
+          <t>VIGENTE</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>444</t>
+          <t>333</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -608,57 +608,57 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AR022_1</t>
+          <t>AR029_1</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0.939073330901131</v>
       </c>
       <c r="C5" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0.161738993</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>CONCLUÍDO</t>
+          <t>VIGENTE</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>444</t>
+          <t>322</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Finalizando en Buen estado</t>
+          <t>Necesitara Extensión o Desembolso Abrupto</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>AR023_1</t>
+          <t>AR035_1</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.945260731777586</v>
+        <v>0.667782172193489</v>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8617205428571429</v>
+        <v>0.38962990990991</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -666,57 +666,57 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>333</t>
+          <t>242</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Finalizando en Buen estado</t>
+          <t>Potencialmente bueno</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>AR024_1</t>
+          <t>AR036_1</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0.94206204379562</v>
       </c>
       <c r="C7" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0.93645898825</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>CONCLUÍDO</t>
+          <t>VIGENTE</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G7" t="n">
         <v>4</v>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>444</t>
+          <t>343</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -728,14 +728,14 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>AR025_1</t>
+          <t>AR037_1</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -768,35 +768,35 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>AR026_1</t>
+          <t>AR039_1</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0.992229527794381</v>
       </c>
       <c r="C9" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0.86853221325142</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>CONCLUÍDO</t>
+          <t>VIGENTE</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>343</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,35 +808,35 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>AR027_1</t>
+          <t>AR040_1</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>0.894878706199461</v>
       </c>
       <c r="C10" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9999999979999999</v>
+        <v>1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>CONCLUÍDO</t>
+          <t>VIGENTE</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>433</t>
+          <t>344</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -848,17 +848,17 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>AR028_1</t>
+          <t>AR041_1</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.873149394347241</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9626249115</v>
+        <v>0.288222616333333</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -866,57 +866,57 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G11" t="n">
         <v>3</v>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>333</t>
+          <t>432</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Finalizando en Buen estado</t>
+          <t>Necesitara Extensión o Desembolso Abrupto</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>AR028_2</t>
+          <t>AR042_1</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.873149394347241</v>
+        <v>0.819163926726163</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>0.5136840311999999</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>CANCELADO</t>
+          <t>VIGENTE</t>
         </is>
       </c>
       <c r="F12" t="n">
         <v>3</v>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>311</t>
+          <t>332</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -928,17 +928,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AR029_1</t>
+          <t>AR042_2</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.939073330901131</v>
+        <v>0.819163926726163</v>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>0.161738993</v>
+        <v>0.05</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -968,275 +968,275 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>AR029_2</t>
+          <t>AR047_1</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>0.89977728285078</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>CANCELADO</t>
+          <t>VIGENTE</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>333</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Proyecto Joven</t>
+          <t>Finalizando en Buen estado</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>AR030_1</t>
+          <t>AR048_1</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>0.818865345181135</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D15" t="n">
         <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>CONCLUÍDO</t>
+          <t>VIGENTE</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H15" t="n">
         <v>4</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>424</t>
+          <t>234</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Finalizando en Buen estado</t>
+          <t>Desembolso Anticipado</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>AR031_1</t>
+          <t>AR048_2</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>0.818865345181135</v>
       </c>
       <c r="C16" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>0.156</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>CONCLUÍDO</t>
+          <t>VIGENTE</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>222</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Finalizando en Buen estado</t>
+          <t>Proyecto Joven</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>AR031_2</t>
+          <t>AR049_1</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>0.759753593429158</v>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0.1780005255</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>CONCLUÍDO</t>
+          <t>VIGENTE</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>222</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Finalizando en Buen estado</t>
+          <t>Proyecto Joven</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>AR032_1</t>
+          <t>AR050_1</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>0.98816029143898</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>0.986892985333333</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>CANCELADO</t>
+          <t>VIGENTE</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>411</t>
+          <t>343</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Necesitara Extensión o Desembolso Abrupto</t>
+          <t>Finalizando en Buen estado</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>AR033_1</t>
+          <t>AR051_1</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>0.760438056125941</v>
       </c>
       <c r="C19" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0.195984228571429</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>CONCLUÍDO</t>
+          <t>VIGENTE</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G19" t="n">
         <v>3</v>
       </c>
       <c r="H19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>232</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Finalizando en Buen estado</t>
+          <t>Potencialmente bueno</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>AR034_1</t>
+          <t>AR052_1</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>0.9943767572633549</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>0.0388</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>CANCELADO</t>
+          <t>VIGENTE</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>411</t>
+          <t>322</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1248,17 +1248,17 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>AR035_1</t>
+          <t>AR053_1</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.667782172193489</v>
+        <v>0.930656934306569</v>
       </c>
       <c r="C21" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>0.38962990990991</v>
+        <v>0.1055</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1266,39 +1266,39 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H21" t="n">
         <v>2</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>322</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Potencialmente bueno</t>
+          <t>Necesitara Extensión o Desembolso Abrupto</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>AR036_1</t>
+          <t>AR054_1</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.94206204379562</v>
+        <v>0.920620437956204</v>
       </c>
       <c r="C22" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
-        <v>0.93645898825</v>
+        <v>0.302</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1309,36 +1309,36 @@
         <v>3</v>
       </c>
       <c r="G22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>343</t>
+          <t>322</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Finalizando en Buen estado</t>
+          <t>Necesitara Extensión o Desembolso Abrupto</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>AR037_1</t>
+          <t>AR055_1</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
+        <v>0.482475355969332</v>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>0.1055</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1346,79 +1346,79 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>222</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Finalizando en Buen estado</t>
+          <t>Proyecto Joven</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>AR038_1</t>
+          <t>AR056_1</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>0.809653916211293</v>
       </c>
       <c r="C24" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>0.194086666666667</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>CONCLUÍDO</t>
+          <t>VIGENTE</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>444</t>
+          <t>222</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Finalizando en Buen estado</t>
+          <t>Proyecto Joven</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>AR039_1</t>
+          <t>AR057_1</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.992229527794381</v>
+        <v>0.777575205104831</v>
       </c>
       <c r="C25" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>0.86853221325142</v>
+        <v>0.1055</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1426,39 +1426,39 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>343</t>
+          <t>222</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Finalizando en Buen estado</t>
+          <t>Proyecto Joven</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>AR040_1</t>
+          <t>AR058_1</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.894878706199461</v>
+        <v>0.579055441478439</v>
       </c>
       <c r="C26" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>1</v>
+        <v>0.1067</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1466,39 +1466,39 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>344</t>
+          <t>222</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Finalizando en Buen estado</t>
+          <t>Proyecto Joven</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>AR041_1</t>
+          <t>AR059_1</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
+        <v>0.302118933697881</v>
       </c>
       <c r="C27" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0.288222616333333</v>
+        <v>0</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1506,39 +1506,39 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>432</t>
+          <t>211</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Necesitara Extensión o Desembolso Abrupto</t>
+          <t>Proyecto Joven</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>AR042_1</t>
+          <t>BO021_1</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.819163926726163</v>
+        <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D28" t="n">
-        <v>0.5136840311999999</v>
+        <v>1</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1546,39 +1546,39 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>444</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Necesitara Extensión o Desembolso Abrupto</t>
+          <t>Finalizando en Buen estado</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>AR042_2</t>
+          <t>BO022_1</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.819163926726163</v>
+        <v>1</v>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D29" t="n">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1586,57 +1586,57 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>444</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Necesitara Extensión o Desembolso Abrupto</t>
+          <t>Finalizando en Buen estado</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>AR043_1</t>
+          <t>BO026_1</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1</v>
+        <v>0.8340727595385981</v>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D30" t="n">
-        <v>1</v>
+        <v>0.8115064436</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>CONCLUÍDO</t>
+          <t>VIGENTE</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>424</t>
+          <t>343</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1648,75 +1648,75 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>AR043_2</t>
+          <t>BO027_1</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1</v>
+        <v>0.823139974779319</v>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D31" t="n">
-        <v>1</v>
+        <v>0.5368752716</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>CONCLUÍDO</t>
+          <t>VIGENTE</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G31" t="n">
         <v>3</v>
       </c>
       <c r="H31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>332</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Finalizando en Buen estado</t>
+          <t>Necesitara Extensión o Desembolso Abrupto</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>AR044_1</t>
+          <t>BO028_1</t>
         </is>
       </c>
       <c r="B32" t="n">
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D32" t="n">
         <v>1</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>CONCLUÍDO</t>
+          <t>VIGENTE</t>
         </is>
       </c>
       <c r="F32" t="n">
         <v>4</v>
       </c>
       <c r="G32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H32" t="n">
         <v>4</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>424</t>
+          <t>444</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1728,35 +1728,35 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>AR044_2</t>
+          <t>BO029_1</t>
         </is>
       </c>
       <c r="B33" t="n">
         <v>1</v>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D33" t="n">
         <v>1</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>CONCLUÍDO</t>
+          <t>VIGENTE</t>
         </is>
       </c>
       <c r="F33" t="n">
         <v>4</v>
       </c>
       <c r="G33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H33" t="n">
         <v>4</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>424</t>
+          <t>434</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1768,75 +1768,75 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>AR045_1</t>
+          <t>BO030_1</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>CANCELADO</t>
+          <t>VIGENTE</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G34" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>444</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Proyecto Joven</t>
+          <t>Finalizando en Buen estado</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>AR046_1</t>
+          <t>BO032_1</t>
         </is>
       </c>
       <c r="B35" t="n">
         <v>1</v>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D35" t="n">
         <v>1</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>CONCLUÍDO</t>
+          <t>VIGENTE</t>
         </is>
       </c>
       <c r="F35" t="n">
         <v>4</v>
       </c>
       <c r="G35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H35" t="n">
         <v>4</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>444</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -1848,17 +1848,17 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>AR047_1</t>
+          <t>BO032_2</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.89977728285078</v>
+        <v>1</v>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D36" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1866,17 +1866,17 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>333</t>
+          <t>444</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -1888,17 +1888,17 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>AR048_1</t>
+          <t>BO033_1</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.818865345181135</v>
+        <v>0.8017621145374449</v>
       </c>
       <c r="C37" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D37" t="n">
-        <v>1</v>
+        <v>0.764377712759539</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1909,36 +1909,36 @@
         <v>2</v>
       </c>
       <c r="G37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>242</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Desembolso Anticipado</t>
+          <t>Potencialmente bueno</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>AR048_2</t>
+          <t>BO034_1</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.818865345181135</v>
+        <v>0.545827633378933</v>
       </c>
       <c r="C38" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
-        <v>0.156</v>
+        <v>0.8565</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1949,36 +1949,36 @@
         <v>2</v>
       </c>
       <c r="G38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>233</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Proyecto Joven</t>
+          <t>Desembolso Anticipado</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>AR049_1</t>
+          <t>BO035_1</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.759753593429158</v>
+        <v>0.478796169630643</v>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D39" t="n">
-        <v>0.1780005255</v>
+        <v>0.88310430275</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1989,36 +1989,36 @@
         <v>2</v>
       </c>
       <c r="G39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>233</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Proyecto Joven</t>
+          <t>Desembolso Anticipado</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>AR050_1</t>
+          <t>BO036_1</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.98816029143898</v>
+        <v>0.0426929392446634</v>
       </c>
       <c r="C40" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0.986892985333333</v>
+        <v>0</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -2026,39 +2026,39 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G40" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H40" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>343</t>
+          <t>111</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Finalizando en Buen estado</t>
+          <t>Proyecto Joven</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>AR051_1</t>
+          <t>BO037_1</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.760438056125941</v>
+        <v>0.0421686746987952</v>
       </c>
       <c r="C41" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0.195984228571429</v>
+        <v>0</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -2066,39 +2066,39 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G41" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>111</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Potencialmente bueno</t>
+          <t>Proyecto Joven</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>AR052_1</t>
+          <t>BR016_1</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.9943767572633549</v>
+        <v>0.9850364963503651</v>
       </c>
       <c r="C42" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0388</v>
+        <v>1</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -2109,36 +2109,36 @@
         <v>3</v>
       </c>
       <c r="G42" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>344</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Necesitara Extensión o Desembolso Abrupto</t>
+          <t>Finalizando en Buen estado</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>AR053_1</t>
+          <t>BR017_1</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.930656934306569</v>
+        <v>0.668773704171934</v>
       </c>
       <c r="C43" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D43" t="n">
-        <v>0.1055</v>
+        <v>0.860142340869565</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -2146,39 +2146,39 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>233</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Necesitara Extensión o Desembolso Abrupto</t>
+          <t>Desembolso Anticipado</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>AR054_1</t>
+          <t>BR018_1</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.920620437956204</v>
+        <v>0.715605749486653</v>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
-        <v>0.302</v>
+        <v>0.12637409375</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -2186,39 +2186,39 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H44" t="n">
         <v>2</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>232</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Necesitara Extensión o Desembolso Abrupto</t>
+          <t>Potencialmente bueno</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>AR055_1</t>
+          <t>BR021_1</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.482475355969332</v>
+        <v>0.751369112814896</v>
       </c>
       <c r="C45" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D45" t="n">
-        <v>0.1055</v>
+        <v>0.76432767616</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -2229,36 +2229,36 @@
         <v>2</v>
       </c>
       <c r="G45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H45" t="n">
         <v>2</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>242</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Proyecto Joven</t>
+          <t>Potencialmente bueno</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>AR056_1</t>
+          <t>BR022_1</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.809653916211293</v>
+        <v>0.744865358283889</v>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D46" t="n">
-        <v>0.194086666666667</v>
+        <v>0.855275362318841</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -2269,36 +2269,36 @@
         <v>2</v>
       </c>
       <c r="G46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>233</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Proyecto Joven</t>
+          <t>Desembolso Anticipado</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>AR057_1</t>
+          <t>BR023_1</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.777575205104831</v>
+        <v>0.734032846715328</v>
       </c>
       <c r="C47" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D47" t="n">
-        <v>0.1055</v>
+        <v>0.6374930388</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -2309,36 +2309,36 @@
         <v>2</v>
       </c>
       <c r="G47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H47" t="n">
         <v>2</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>232</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Proyecto Joven</t>
+          <t>Potencialmente bueno</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>AR058_1</t>
+          <t>BR025_1</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.579055441478439</v>
+        <v>0.762869660460022</v>
       </c>
       <c r="C48" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D48" t="n">
-        <v>0.1067</v>
+        <v>0.949871711764706</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -2349,36 +2349,36 @@
         <v>2</v>
       </c>
       <c r="G48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>233</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Proyecto Joven</t>
+          <t>Desembolso Anticipado</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>AR059_1</t>
+          <t>BR026_1</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.302118933697881</v>
+        <v>0.374589266155531</v>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
-        <v>0</v>
+        <v>0.436363636363636</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -2389,94 +2389,94 @@
         <v>2</v>
       </c>
       <c r="G49" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>232</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Proyecto Joven</t>
+          <t>Potencialmente bueno</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>AR060_1</t>
+          <t>BR028_1</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0</v>
+        <v>0.337712096332786</v>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
-        <v>0</v>
+        <v>0.20325</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>APROBADO</t>
+          <t>VIGENTE</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G50" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>232</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Proyecto Joven</t>
+          <t>Potencialmente bueno</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>AR061_1</t>
+          <t>BR029_1</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0</v>
+        <v>0.444140197152245</v>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
-        <v>0</v>
+        <v>0.113649900333333</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>APROBADO</t>
+          <t>VIGENTE</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>222</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2488,57 +2488,57 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>BO020_1</t>
+          <t>BR031_1</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>1</v>
+        <v>0.328587075575027</v>
       </c>
       <c r="C52" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D52" t="n">
-        <v>1</v>
+        <v>0.107</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>CONCLUÍDO</t>
+          <t>VIGENTE</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G52" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H52" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>444</t>
+          <t>222</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Finalizando en Buen estado</t>
+          <t>Proyecto Joven</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>BO021_1</t>
+          <t>BR032_1</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>1</v>
+        <v>0.341543513957307</v>
       </c>
       <c r="C53" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D53" t="n">
-        <v>1</v>
+        <v>0.1055</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -2546,39 +2546,39 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>444</t>
+          <t>222</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Finalizando en Buen estado</t>
+          <t>Proyecto Joven</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>BO022_1</t>
+          <t>BR033_1</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>1</v>
+        <v>0.337712096332786</v>
       </c>
       <c r="C54" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D54" t="n">
-        <v>1</v>
+        <v>0.1055</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -2586,159 +2586,159 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G54" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H54" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>444</t>
+          <t>222</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Finalizando en Buen estado</t>
+          <t>Proyecto Joven</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>BO023_1</t>
+          <t>BR034_1</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>1</v>
+        <v>0.137383689107827</v>
       </c>
       <c r="C55" t="n">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
-        <v>1</v>
+        <v>0.0435318359090909</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>CONCLUÍDO</t>
+          <t>VIGENTE</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>444</t>
+          <t>122</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Finalizando en Buen estado</t>
+          <t>Proyecto Joven</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>BO024_1</t>
+          <t>BR035_1</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>1</v>
+        <v>0.217296113847838</v>
       </c>
       <c r="C56" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D56" t="n">
-        <v>1</v>
+        <v>0.1055</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>CONCLUÍDO</t>
+          <t>VIGENTE</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G56" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H56" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>444</t>
+          <t>222</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Finalizando en Buen estado</t>
+          <t>Proyecto Joven</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>BO025_1</t>
+          <t>BR036_1</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>1</v>
+        <v>0.106185002736727</v>
       </c>
       <c r="C57" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>CONCLUÍDO</t>
+          <t>VIGENTE</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G57" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H57" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>111</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Finalizando en Buen estado</t>
+          <t>Proyecto Joven</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>BO026_1</t>
+          <t>BR037_1</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.8340727595385981</v>
+        <v>0</v>
       </c>
       <c r="C58" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>0.8115064436</v>
+        <v>0</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -2746,39 +2746,39 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G58" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H58" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>343</t>
+          <t>111</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Finalizando en Buen estado</t>
+          <t>Proyecto Joven</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>BO027_1</t>
+          <t>BR038_1</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.823139974779319</v>
+        <v>0</v>
       </c>
       <c r="C59" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>0.5368752716</v>
+        <v>0</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -2786,39 +2786,39 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G59" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>111</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Necesitara Extensión o Desembolso Abrupto</t>
+          <t>Proyecto Joven</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>BO028_1</t>
+          <t>BR039_1</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>1</v>
+        <v>0.09523809523809521</v>
       </c>
       <c r="C60" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -2826,39 +2826,39 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G60" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H60" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>444</t>
+          <t>111</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Finalizando en Buen estado</t>
+          <t>Proyecto Joven</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>BO029_1</t>
+          <t>BR040_1</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C61" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -2866,39 +2866,39 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G61" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H61" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>111</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Finalizando en Buen estado</t>
+          <t>Proyecto Joven</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>BO030_1</t>
+          <t>BR042_1</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C62" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -2906,33 +2906,33 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G62" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H62" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>444</t>
+          <t>111</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Finalizando en Buen estado</t>
+          <t>Proyecto Joven</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>BO032_1</t>
+          <t>PY020_1</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>1</v>
+        <v>0.998631074606434</v>
       </c>
       <c r="C63" t="n">
         <v>12</v>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G63" t="n">
         <v>4</v>
@@ -2956,7 +2956,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>444</t>
+          <t>344</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -2968,14 +2968,14 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>BO032_2</t>
+          <t>PY020_2</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>1</v>
+        <v>0.997580157289776</v>
       </c>
       <c r="C64" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D64" t="n">
         <v>1</v>
@@ -2986,7 +2986,7 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G64" t="n">
         <v>4</v>
@@ -2996,7 +2996,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>444</t>
+          <t>344</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3008,17 +3008,17 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>BO033_1</t>
+          <t>PY022_1</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.8017621145374449</v>
+        <v>0.793292265571526</v>
       </c>
       <c r="C65" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D65" t="n">
-        <v>0.764377712759539</v>
+        <v>0.813408808888889</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -3032,33 +3032,33 @@
         <v>4</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>243</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Potencialmente bueno</t>
+          <t>Desembolso Anticipado</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>BO034_1</t>
+          <t>PY023_1</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.545827633378933</v>
+        <v>0.918339416058394</v>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="D66" t="n">
-        <v>0.8565</v>
+        <v>0.779433162126261</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -3066,39 +3066,39 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G66" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H66" t="n">
         <v>3</v>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>343</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Desembolso Anticipado</t>
+          <t>Finalizando en Buen estado</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>BO035_1</t>
+          <t>PY024_1</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.478796169630643</v>
+        <v>0.7869429241595</v>
       </c>
       <c r="C67" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D67" t="n">
-        <v>0.88310430275</v>
+        <v>0.7682498779725</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -3109,14 +3109,14 @@
         <v>2</v>
       </c>
       <c r="G67" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H67" t="n">
         <v>3</v>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>243</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3128,17 +3128,17 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>BO036_1</t>
+          <t>PY026_1</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.0426929392446634</v>
+        <v>0.811405702851426</v>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -3146,33 +3146,33 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G68" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>234</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Proyecto Joven</t>
+          <t>Desembolso Anticipado</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>BO037_1</t>
+          <t>PY027_1</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.0421686746987952</v>
+        <v>0.186097427476738</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
@@ -3208,51 +3208,51 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>BO038_1</t>
+          <t>PY028_1</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0</v>
+        <v>0.312475557293704</v>
       </c>
       <c r="C70" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
-        <v>0</v>
+        <v>0.120748275677436</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>APROBADO</t>
+          <t>VIGENTE</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G70" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>232</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Proyecto Joven</t>
+          <t>Potencialmente bueno</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>BO038_2</t>
+          <t>PY029_1</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0</v>
+        <v>0.182501708817498</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
@@ -3262,7 +3262,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>APROBADO</t>
+          <t>VIGENTE</t>
         </is>
       </c>
       <c r="F71" t="n">
@@ -3288,14 +3288,14 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>BR016_1</t>
+          <t>UR014_1</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.9850364963503651</v>
+        <v>1</v>
       </c>
       <c r="C72" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D72" t="n">
         <v>1</v>
@@ -3306,7 +3306,7 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G72" t="n">
         <v>4</v>
@@ -3316,7 +3316,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>344</t>
+          <t>444</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3328,17 +3328,17 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>BR017_1</t>
+          <t>UR019_1</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.668773704171934</v>
+        <v>1</v>
       </c>
       <c r="C73" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
-        <v>0.860142340869565</v>
+        <v>1</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -3346,39 +3346,39 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>424</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Desembolso Anticipado</t>
+          <t>Finalizando en Buen estado</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>BR018_1</t>
+          <t>UR020_1</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.715605749486653</v>
+        <v>1</v>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D74" t="n">
-        <v>0.12637409375</v>
+        <v>1</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -3386,119 +3386,119 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G74" t="n">
         <v>3</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>434</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Potencialmente bueno</t>
+          <t>Finalizando en Buen estado</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>BR019_1</t>
+          <t>UR021_1</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>CANCELADO</t>
+          <t>VIGENTE</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>424</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Proyecto Joven</t>
+          <t>Finalizando en Buen estado</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>BR020_1</t>
+          <t>UR022_1</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0</v>
+        <v>0.994530537830447</v>
       </c>
       <c r="C76" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>CANCELADO</t>
+          <t>VIGENTE</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G76" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>334</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Proyecto Joven</t>
+          <t>Finalizando en Buen estado</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>BR021_1</t>
+          <t>UR023_1</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.751369112814896</v>
+        <v>0.199315068493151</v>
       </c>
       <c r="C77" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
-        <v>0.76432767616</v>
+        <v>1</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -3506,39 +3506,39 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G77" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>134</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Potencialmente bueno</t>
+          <t>Desembolso Anticipado</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>BR022_1</t>
+          <t>UR023_2</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.744865358283889</v>
+        <v>0.199315068493151</v>
       </c>
       <c r="C78" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D78" t="n">
-        <v>0.855275362318841</v>
+        <v>0.5</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -3546,39 +3546,39 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>122</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Desembolso Anticipado</t>
+          <t>Proyecto Joven</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>BR023_1</t>
+          <t>UR024_1</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.734032846715328</v>
+        <v>0.203281677301732</v>
       </c>
       <c r="C79" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
-        <v>0.6374930388</v>
+        <v>0.989033333333333</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -3589,26 +3589,26 @@
         <v>2</v>
       </c>
       <c r="G79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>223</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Potencialmente bueno</t>
+          <t>Desembolso Anticipado</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>BR024_1</t>
+          <t>UR025_1</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -3622,7 +3622,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>CANCELADO</t>
+          <t>VIGENTE</t>
         </is>
       </c>
       <c r="F80" t="n">
@@ -3640,1966 +3640,6 @@
         </is>
       </c>
       <c r="J80" t="inlineStr">
-        <is>
-          <t>Proyecto Joven</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>BR025_1</t>
-        </is>
-      </c>
-      <c r="B81" t="n">
-        <v>0.762869660460022</v>
-      </c>
-      <c r="C81" t="n">
-        <v>7</v>
-      </c>
-      <c r="D81" t="n">
-        <v>0.949871711764706</v>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>VIGENTE</t>
-        </is>
-      </c>
-      <c r="F81" t="n">
-        <v>2</v>
-      </c>
-      <c r="G81" t="n">
-        <v>3</v>
-      </c>
-      <c r="H81" t="n">
-        <v>3</v>
-      </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>233</t>
-        </is>
-      </c>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t>Desembolso Anticipado</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>BR026_1</t>
-        </is>
-      </c>
-      <c r="B82" t="n">
-        <v>0.374589266155531</v>
-      </c>
-      <c r="C82" t="n">
-        <v>3</v>
-      </c>
-      <c r="D82" t="n">
-        <v>0.436363636363636</v>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>VIGENTE</t>
-        </is>
-      </c>
-      <c r="F82" t="n">
-        <v>2</v>
-      </c>
-      <c r="G82" t="n">
-        <v>3</v>
-      </c>
-      <c r="H82" t="n">
-        <v>2</v>
-      </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>232</t>
-        </is>
-      </c>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>Potencialmente bueno</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>BR027_1</t>
-        </is>
-      </c>
-      <c r="B83" t="n">
-        <v>0</v>
-      </c>
-      <c r="C83" t="n">
-        <v>0</v>
-      </c>
-      <c r="D83" t="n">
-        <v>0</v>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>CANCELADO</t>
-        </is>
-      </c>
-      <c r="F83" t="n">
-        <v>1</v>
-      </c>
-      <c r="G83" t="n">
-        <v>1</v>
-      </c>
-      <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>Proyecto Joven</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>BR028_1</t>
-        </is>
-      </c>
-      <c r="B84" t="n">
-        <v>0.337712096332786</v>
-      </c>
-      <c r="C84" t="n">
-        <v>3</v>
-      </c>
-      <c r="D84" t="n">
-        <v>0.20325</v>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>VIGENTE</t>
-        </is>
-      </c>
-      <c r="F84" t="n">
-        <v>2</v>
-      </c>
-      <c r="G84" t="n">
-        <v>3</v>
-      </c>
-      <c r="H84" t="n">
-        <v>2</v>
-      </c>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>232</t>
-        </is>
-      </c>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>Potencialmente bueno</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>BR029_1</t>
-        </is>
-      </c>
-      <c r="B85" t="n">
-        <v>0.444140197152245</v>
-      </c>
-      <c r="C85" t="n">
-        <v>2</v>
-      </c>
-      <c r="D85" t="n">
-        <v>0.113649900333333</v>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>VIGENTE</t>
-        </is>
-      </c>
-      <c r="F85" t="n">
-        <v>2</v>
-      </c>
-      <c r="G85" t="n">
-        <v>2</v>
-      </c>
-      <c r="H85" t="n">
-        <v>2</v>
-      </c>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t>222</t>
-        </is>
-      </c>
-      <c r="J85" t="inlineStr">
-        <is>
-          <t>Proyecto Joven</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>BR030_1</t>
-        </is>
-      </c>
-      <c r="B86" t="n">
-        <v>0</v>
-      </c>
-      <c r="C86" t="n">
-        <v>0</v>
-      </c>
-      <c r="D86" t="n">
-        <v>0</v>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>CANCELADO</t>
-        </is>
-      </c>
-      <c r="F86" t="n">
-        <v>1</v>
-      </c>
-      <c r="G86" t="n">
-        <v>1</v>
-      </c>
-      <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="J86" t="inlineStr">
-        <is>
-          <t>Proyecto Joven</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>BR031_1</t>
-        </is>
-      </c>
-      <c r="B87" t="n">
-        <v>0.328587075575027</v>
-      </c>
-      <c r="C87" t="n">
-        <v>1</v>
-      </c>
-      <c r="D87" t="n">
-        <v>0.107</v>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>VIGENTE</t>
-        </is>
-      </c>
-      <c r="F87" t="n">
-        <v>2</v>
-      </c>
-      <c r="G87" t="n">
-        <v>2</v>
-      </c>
-      <c r="H87" t="n">
-        <v>2</v>
-      </c>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>222</t>
-        </is>
-      </c>
-      <c r="J87" t="inlineStr">
-        <is>
-          <t>Proyecto Joven</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>BR032_1</t>
-        </is>
-      </c>
-      <c r="B88" t="n">
-        <v>0.341543513957307</v>
-      </c>
-      <c r="C88" t="n">
-        <v>1</v>
-      </c>
-      <c r="D88" t="n">
-        <v>0.1055</v>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>VIGENTE</t>
-        </is>
-      </c>
-      <c r="F88" t="n">
-        <v>2</v>
-      </c>
-      <c r="G88" t="n">
-        <v>2</v>
-      </c>
-      <c r="H88" t="n">
-        <v>2</v>
-      </c>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>222</t>
-        </is>
-      </c>
-      <c r="J88" t="inlineStr">
-        <is>
-          <t>Proyecto Joven</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>BR033_1</t>
-        </is>
-      </c>
-      <c r="B89" t="n">
-        <v>0.337712096332786</v>
-      </c>
-      <c r="C89" t="n">
-        <v>1</v>
-      </c>
-      <c r="D89" t="n">
-        <v>0.1055</v>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>VIGENTE</t>
-        </is>
-      </c>
-      <c r="F89" t="n">
-        <v>2</v>
-      </c>
-      <c r="G89" t="n">
-        <v>2</v>
-      </c>
-      <c r="H89" t="n">
-        <v>2</v>
-      </c>
-      <c r="I89" t="inlineStr">
-        <is>
-          <t>222</t>
-        </is>
-      </c>
-      <c r="J89" t="inlineStr">
-        <is>
-          <t>Proyecto Joven</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>BR034_1</t>
-        </is>
-      </c>
-      <c r="B90" t="n">
-        <v>0.137383689107827</v>
-      </c>
-      <c r="C90" t="n">
-        <v>2</v>
-      </c>
-      <c r="D90" t="n">
-        <v>0.0435318359090909</v>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>VIGENTE</t>
-        </is>
-      </c>
-      <c r="F90" t="n">
-        <v>1</v>
-      </c>
-      <c r="G90" t="n">
-        <v>2</v>
-      </c>
-      <c r="H90" t="n">
-        <v>2</v>
-      </c>
-      <c r="I90" t="inlineStr">
-        <is>
-          <t>122</t>
-        </is>
-      </c>
-      <c r="J90" t="inlineStr">
-        <is>
-          <t>Proyecto Joven</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>BR035_1</t>
-        </is>
-      </c>
-      <c r="B91" t="n">
-        <v>0.217296113847838</v>
-      </c>
-      <c r="C91" t="n">
-        <v>1</v>
-      </c>
-      <c r="D91" t="n">
-        <v>0.1055</v>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>VIGENTE</t>
-        </is>
-      </c>
-      <c r="F91" t="n">
-        <v>2</v>
-      </c>
-      <c r="G91" t="n">
-        <v>2</v>
-      </c>
-      <c r="H91" t="n">
-        <v>2</v>
-      </c>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>222</t>
-        </is>
-      </c>
-      <c r="J91" t="inlineStr">
-        <is>
-          <t>Proyecto Joven</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>BR036_1</t>
-        </is>
-      </c>
-      <c r="B92" t="n">
-        <v>0.106185002736727</v>
-      </c>
-      <c r="C92" t="n">
-        <v>0</v>
-      </c>
-      <c r="D92" t="n">
-        <v>0</v>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>VIGENTE</t>
-        </is>
-      </c>
-      <c r="F92" t="n">
-        <v>1</v>
-      </c>
-      <c r="G92" t="n">
-        <v>1</v>
-      </c>
-      <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="J92" t="inlineStr">
-        <is>
-          <t>Proyecto Joven</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>BR037_1</t>
-        </is>
-      </c>
-      <c r="B93" t="n">
-        <v>0</v>
-      </c>
-      <c r="C93" t="n">
-        <v>0</v>
-      </c>
-      <c r="D93" t="n">
-        <v>0</v>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>VIGENTE</t>
-        </is>
-      </c>
-      <c r="F93" t="n">
-        <v>1</v>
-      </c>
-      <c r="G93" t="n">
-        <v>1</v>
-      </c>
-      <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="J93" t="inlineStr">
-        <is>
-          <t>Proyecto Joven</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>BR038_1</t>
-        </is>
-      </c>
-      <c r="B94" t="n">
-        <v>0</v>
-      </c>
-      <c r="C94" t="n">
-        <v>0</v>
-      </c>
-      <c r="D94" t="n">
-        <v>0</v>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>VIGENTE</t>
-        </is>
-      </c>
-      <c r="F94" t="n">
-        <v>1</v>
-      </c>
-      <c r="G94" t="n">
-        <v>1</v>
-      </c>
-      <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="J94" t="inlineStr">
-        <is>
-          <t>Proyecto Joven</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>BR039_1</t>
-        </is>
-      </c>
-      <c r="B95" t="n">
-        <v>0.09523809523809521</v>
-      </c>
-      <c r="C95" t="n">
-        <v>0</v>
-      </c>
-      <c r="D95" t="n">
-        <v>0</v>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>VIGENTE</t>
-        </is>
-      </c>
-      <c r="F95" t="n">
-        <v>1</v>
-      </c>
-      <c r="G95" t="n">
-        <v>1</v>
-      </c>
-      <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="J95" t="inlineStr">
-        <is>
-          <t>Proyecto Joven</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>BR040_1</t>
-        </is>
-      </c>
-      <c r="B96" t="n">
-        <v>0</v>
-      </c>
-      <c r="C96" t="n">
-        <v>0</v>
-      </c>
-      <c r="D96" t="n">
-        <v>0</v>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>VIGENTE</t>
-        </is>
-      </c>
-      <c r="F96" t="n">
-        <v>1</v>
-      </c>
-      <c r="G96" t="n">
-        <v>1</v>
-      </c>
-      <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="J96" t="inlineStr">
-        <is>
-          <t>Proyecto Joven</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>BR041_1</t>
-        </is>
-      </c>
-      <c r="B97" t="n">
-        <v>0</v>
-      </c>
-      <c r="C97" t="n">
-        <v>0</v>
-      </c>
-      <c r="D97" t="n">
-        <v>0</v>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>APROBADO</t>
-        </is>
-      </c>
-      <c r="F97" t="n">
-        <v>1</v>
-      </c>
-      <c r="G97" t="n">
-        <v>1</v>
-      </c>
-      <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="J97" t="inlineStr">
-        <is>
-          <t>Proyecto Joven</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>BR042_1</t>
-        </is>
-      </c>
-      <c r="B98" t="n">
-        <v>0</v>
-      </c>
-      <c r="C98" t="n">
-        <v>0</v>
-      </c>
-      <c r="D98" t="n">
-        <v>0</v>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>VIGENTE</t>
-        </is>
-      </c>
-      <c r="F98" t="n">
-        <v>1</v>
-      </c>
-      <c r="G98" t="n">
-        <v>1</v>
-      </c>
-      <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="J98" t="inlineStr">
-        <is>
-          <t>Proyecto Joven</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>PY016_1</t>
-        </is>
-      </c>
-      <c r="B99" t="n">
-        <v>1</v>
-      </c>
-      <c r="C99" t="n">
-        <v>2</v>
-      </c>
-      <c r="D99" t="n">
-        <v>1</v>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>CONCLUÍDO</t>
-        </is>
-      </c>
-      <c r="F99" t="n">
-        <v>4</v>
-      </c>
-      <c r="G99" t="n">
-        <v>2</v>
-      </c>
-      <c r="H99" t="n">
-        <v>4</v>
-      </c>
-      <c r="I99" t="inlineStr">
-        <is>
-          <t>424</t>
-        </is>
-      </c>
-      <c r="J99" t="inlineStr">
-        <is>
-          <t>Finalizando en Buen estado</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>PY016_2</t>
-        </is>
-      </c>
-      <c r="B100" t="n">
-        <v>1</v>
-      </c>
-      <c r="C100" t="n">
-        <v>5</v>
-      </c>
-      <c r="D100" t="n">
-        <v>0.99009900990099</v>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>CONCLUÍDO</t>
-        </is>
-      </c>
-      <c r="F100" t="n">
-        <v>4</v>
-      </c>
-      <c r="G100" t="n">
-        <v>3</v>
-      </c>
-      <c r="H100" t="n">
-        <v>3</v>
-      </c>
-      <c r="I100" t="inlineStr">
-        <is>
-          <t>433</t>
-        </is>
-      </c>
-      <c r="J100" t="inlineStr">
-        <is>
-          <t>Finalizando en Buen estado</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>PY020_1</t>
-        </is>
-      </c>
-      <c r="B101" t="n">
-        <v>0.998631074606434</v>
-      </c>
-      <c r="C101" t="n">
-        <v>12</v>
-      </c>
-      <c r="D101" t="n">
-        <v>1</v>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>VIGENTE</t>
-        </is>
-      </c>
-      <c r="F101" t="n">
-        <v>3</v>
-      </c>
-      <c r="G101" t="n">
-        <v>4</v>
-      </c>
-      <c r="H101" t="n">
-        <v>4</v>
-      </c>
-      <c r="I101" t="inlineStr">
-        <is>
-          <t>344</t>
-        </is>
-      </c>
-      <c r="J101" t="inlineStr">
-        <is>
-          <t>Finalizando en Buen estado</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>PY020_2</t>
-        </is>
-      </c>
-      <c r="B102" t="n">
-        <v>0.997580157289776</v>
-      </c>
-      <c r="C102" t="n">
-        <v>13</v>
-      </c>
-      <c r="D102" t="n">
-        <v>1</v>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>VIGENTE</t>
-        </is>
-      </c>
-      <c r="F102" t="n">
-        <v>3</v>
-      </c>
-      <c r="G102" t="n">
-        <v>4</v>
-      </c>
-      <c r="H102" t="n">
-        <v>4</v>
-      </c>
-      <c r="I102" t="inlineStr">
-        <is>
-          <t>344</t>
-        </is>
-      </c>
-      <c r="J102" t="inlineStr">
-        <is>
-          <t>Finalizando en Buen estado</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>PY021_1</t>
-        </is>
-      </c>
-      <c r="B103" t="n">
-        <v>1</v>
-      </c>
-      <c r="C103" t="n">
-        <v>16</v>
-      </c>
-      <c r="D103" t="n">
-        <v>1</v>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>CONCLUÍDO</t>
-        </is>
-      </c>
-      <c r="F103" t="n">
-        <v>4</v>
-      </c>
-      <c r="G103" t="n">
-        <v>4</v>
-      </c>
-      <c r="H103" t="n">
-        <v>4</v>
-      </c>
-      <c r="I103" t="inlineStr">
-        <is>
-          <t>444</t>
-        </is>
-      </c>
-      <c r="J103" t="inlineStr">
-        <is>
-          <t>Finalizando en Buen estado</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>PY022_1</t>
-        </is>
-      </c>
-      <c r="B104" t="n">
-        <v>0.793292265571526</v>
-      </c>
-      <c r="C104" t="n">
-        <v>18</v>
-      </c>
-      <c r="D104" t="n">
-        <v>0.813408808888889</v>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>VIGENTE</t>
-        </is>
-      </c>
-      <c r="F104" t="n">
-        <v>2</v>
-      </c>
-      <c r="G104" t="n">
-        <v>4</v>
-      </c>
-      <c r="H104" t="n">
-        <v>3</v>
-      </c>
-      <c r="I104" t="inlineStr">
-        <is>
-          <t>243</t>
-        </is>
-      </c>
-      <c r="J104" t="inlineStr">
-        <is>
-          <t>Desembolso Anticipado</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>PY023_1</t>
-        </is>
-      </c>
-      <c r="B105" t="n">
-        <v>0.918339416058394</v>
-      </c>
-      <c r="C105" t="n">
-        <v>17</v>
-      </c>
-      <c r="D105" t="n">
-        <v>0.779433162126261</v>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>VIGENTE</t>
-        </is>
-      </c>
-      <c r="F105" t="n">
-        <v>3</v>
-      </c>
-      <c r="G105" t="n">
-        <v>4</v>
-      </c>
-      <c r="H105" t="n">
-        <v>3</v>
-      </c>
-      <c r="I105" t="inlineStr">
-        <is>
-          <t>343</t>
-        </is>
-      </c>
-      <c r="J105" t="inlineStr">
-        <is>
-          <t>Finalizando en Buen estado</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>PY024_1</t>
-        </is>
-      </c>
-      <c r="B106" t="n">
-        <v>0.7869429241595</v>
-      </c>
-      <c r="C106" t="n">
-        <v>14</v>
-      </c>
-      <c r="D106" t="n">
-        <v>0.7682498779725</v>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>VIGENTE</t>
-        </is>
-      </c>
-      <c r="F106" t="n">
-        <v>2</v>
-      </c>
-      <c r="G106" t="n">
-        <v>4</v>
-      </c>
-      <c r="H106" t="n">
-        <v>3</v>
-      </c>
-      <c r="I106" t="inlineStr">
-        <is>
-          <t>243</t>
-        </is>
-      </c>
-      <c r="J106" t="inlineStr">
-        <is>
-          <t>Desembolso Anticipado</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>PY025_1</t>
-        </is>
-      </c>
-      <c r="B107" t="n">
-        <v>0</v>
-      </c>
-      <c r="C107" t="n">
-        <v>0</v>
-      </c>
-      <c r="D107" t="n">
-        <v>0</v>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>CANCELADO</t>
-        </is>
-      </c>
-      <c r="F107" t="n">
-        <v>1</v>
-      </c>
-      <c r="G107" t="n">
-        <v>1</v>
-      </c>
-      <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="J107" t="inlineStr">
-        <is>
-          <t>Proyecto Joven</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>PY026_1</t>
-        </is>
-      </c>
-      <c r="B108" t="n">
-        <v>0.811405702851426</v>
-      </c>
-      <c r="C108" t="n">
-        <v>3</v>
-      </c>
-      <c r="D108" t="n">
-        <v>1</v>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>VIGENTE</t>
-        </is>
-      </c>
-      <c r="F108" t="n">
-        <v>2</v>
-      </c>
-      <c r="G108" t="n">
-        <v>3</v>
-      </c>
-      <c r="H108" t="n">
-        <v>4</v>
-      </c>
-      <c r="I108" t="inlineStr">
-        <is>
-          <t>234</t>
-        </is>
-      </c>
-      <c r="J108" t="inlineStr">
-        <is>
-          <t>Desembolso Anticipado</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>PY027_1</t>
-        </is>
-      </c>
-      <c r="B109" t="n">
-        <v>0.186097427476738</v>
-      </c>
-      <c r="C109" t="n">
-        <v>0</v>
-      </c>
-      <c r="D109" t="n">
-        <v>0</v>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>VIGENTE</t>
-        </is>
-      </c>
-      <c r="F109" t="n">
-        <v>1</v>
-      </c>
-      <c r="G109" t="n">
-        <v>1</v>
-      </c>
-      <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="J109" t="inlineStr">
-        <is>
-          <t>Proyecto Joven</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>PY027_2</t>
-        </is>
-      </c>
-      <c r="B110" t="n">
-        <v>0</v>
-      </c>
-      <c r="C110" t="n">
-        <v>0</v>
-      </c>
-      <c r="D110" t="n">
-        <v>0</v>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>SIN ACTIVAR</t>
-        </is>
-      </c>
-      <c r="F110" t="n">
-        <v>1</v>
-      </c>
-      <c r="G110" t="n">
-        <v>1</v>
-      </c>
-      <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="J110" t="inlineStr">
-        <is>
-          <t>Proyecto Joven</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>PY028_1</t>
-        </is>
-      </c>
-      <c r="B111" t="n">
-        <v>0.312475557293704</v>
-      </c>
-      <c r="C111" t="n">
-        <v>3</v>
-      </c>
-      <c r="D111" t="n">
-        <v>0.120748275677436</v>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>VIGENTE</t>
-        </is>
-      </c>
-      <c r="F111" t="n">
-        <v>2</v>
-      </c>
-      <c r="G111" t="n">
-        <v>3</v>
-      </c>
-      <c r="H111" t="n">
-        <v>2</v>
-      </c>
-      <c r="I111" t="inlineStr">
-        <is>
-          <t>232</t>
-        </is>
-      </c>
-      <c r="J111" t="inlineStr">
-        <is>
-          <t>Potencialmente bueno</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>PY029_1</t>
-        </is>
-      </c>
-      <c r="B112" t="n">
-        <v>0.182501708817498</v>
-      </c>
-      <c r="C112" t="n">
-        <v>0</v>
-      </c>
-      <c r="D112" t="n">
-        <v>0</v>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>VIGENTE</t>
-        </is>
-      </c>
-      <c r="F112" t="n">
-        <v>1</v>
-      </c>
-      <c r="G112" t="n">
-        <v>1</v>
-      </c>
-      <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="J112" t="inlineStr">
-        <is>
-          <t>Proyecto Joven</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>UR014_1</t>
-        </is>
-      </c>
-      <c r="B113" t="n">
-        <v>1</v>
-      </c>
-      <c r="C113" t="n">
-        <v>16</v>
-      </c>
-      <c r="D113" t="n">
-        <v>1</v>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>VIGENTE</t>
-        </is>
-      </c>
-      <c r="F113" t="n">
-        <v>4</v>
-      </c>
-      <c r="G113" t="n">
-        <v>4</v>
-      </c>
-      <c r="H113" t="n">
-        <v>4</v>
-      </c>
-      <c r="I113" t="inlineStr">
-        <is>
-          <t>444</t>
-        </is>
-      </c>
-      <c r="J113" t="inlineStr">
-        <is>
-          <t>Finalizando en Buen estado</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>UR016_1</t>
-        </is>
-      </c>
-      <c r="B114" t="n">
-        <v>1</v>
-      </c>
-      <c r="C114" t="n">
-        <v>11</v>
-      </c>
-      <c r="D114" t="n">
-        <v>1</v>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>CONCLUÍDO</t>
-        </is>
-      </c>
-      <c r="F114" t="n">
-        <v>4</v>
-      </c>
-      <c r="G114" t="n">
-        <v>4</v>
-      </c>
-      <c r="H114" t="n">
-        <v>4</v>
-      </c>
-      <c r="I114" t="inlineStr">
-        <is>
-          <t>444</t>
-        </is>
-      </c>
-      <c r="J114" t="inlineStr">
-        <is>
-          <t>Finalizando en Buen estado</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>UR017_1</t>
-        </is>
-      </c>
-      <c r="B115" t="n">
-        <v>1</v>
-      </c>
-      <c r="C115" t="n">
-        <v>13</v>
-      </c>
-      <c r="D115" t="n">
-        <v>1</v>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>CONCLUÍDO</t>
-        </is>
-      </c>
-      <c r="F115" t="n">
-        <v>4</v>
-      </c>
-      <c r="G115" t="n">
-        <v>4</v>
-      </c>
-      <c r="H115" t="n">
-        <v>4</v>
-      </c>
-      <c r="I115" t="inlineStr">
-        <is>
-          <t>444</t>
-        </is>
-      </c>
-      <c r="J115" t="inlineStr">
-        <is>
-          <t>Finalizando en Buen estado</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>UR018_1</t>
-        </is>
-      </c>
-      <c r="B116" t="n">
-        <v>1</v>
-      </c>
-      <c r="C116" t="n">
-        <v>7</v>
-      </c>
-      <c r="D116" t="n">
-        <v>1</v>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>CONCLUÍDO</t>
-        </is>
-      </c>
-      <c r="F116" t="n">
-        <v>4</v>
-      </c>
-      <c r="G116" t="n">
-        <v>3</v>
-      </c>
-      <c r="H116" t="n">
-        <v>4</v>
-      </c>
-      <c r="I116" t="inlineStr">
-        <is>
-          <t>434</t>
-        </is>
-      </c>
-      <c r="J116" t="inlineStr">
-        <is>
-          <t>Finalizando en Buen estado</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>UR019_1</t>
-        </is>
-      </c>
-      <c r="B117" t="n">
-        <v>1</v>
-      </c>
-      <c r="C117" t="n">
-        <v>2</v>
-      </c>
-      <c r="D117" t="n">
-        <v>1</v>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>VIGENTE</t>
-        </is>
-      </c>
-      <c r="F117" t="n">
-        <v>4</v>
-      </c>
-      <c r="G117" t="n">
-        <v>2</v>
-      </c>
-      <c r="H117" t="n">
-        <v>4</v>
-      </c>
-      <c r="I117" t="inlineStr">
-        <is>
-          <t>424</t>
-        </is>
-      </c>
-      <c r="J117" t="inlineStr">
-        <is>
-          <t>Finalizando en Buen estado</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>UR020_1</t>
-        </is>
-      </c>
-      <c r="B118" t="n">
-        <v>1</v>
-      </c>
-      <c r="C118" t="n">
-        <v>6</v>
-      </c>
-      <c r="D118" t="n">
-        <v>1</v>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>VIGENTE</t>
-        </is>
-      </c>
-      <c r="F118" t="n">
-        <v>4</v>
-      </c>
-      <c r="G118" t="n">
-        <v>3</v>
-      </c>
-      <c r="H118" t="n">
-        <v>4</v>
-      </c>
-      <c r="I118" t="inlineStr">
-        <is>
-          <t>434</t>
-        </is>
-      </c>
-      <c r="J118" t="inlineStr">
-        <is>
-          <t>Finalizando en Buen estado</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>UR021_1</t>
-        </is>
-      </c>
-      <c r="B119" t="n">
-        <v>1</v>
-      </c>
-      <c r="C119" t="n">
-        <v>1</v>
-      </c>
-      <c r="D119" t="n">
-        <v>1</v>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>VIGENTE</t>
-        </is>
-      </c>
-      <c r="F119" t="n">
-        <v>4</v>
-      </c>
-      <c r="G119" t="n">
-        <v>2</v>
-      </c>
-      <c r="H119" t="n">
-        <v>4</v>
-      </c>
-      <c r="I119" t="inlineStr">
-        <is>
-          <t>424</t>
-        </is>
-      </c>
-      <c r="J119" t="inlineStr">
-        <is>
-          <t>Finalizando en Buen estado</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>UR022_1</t>
-        </is>
-      </c>
-      <c r="B120" t="n">
-        <v>0.994530537830447</v>
-      </c>
-      <c r="C120" t="n">
-        <v>4</v>
-      </c>
-      <c r="D120" t="n">
-        <v>1</v>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>VIGENTE</t>
-        </is>
-      </c>
-      <c r="F120" t="n">
-        <v>3</v>
-      </c>
-      <c r="G120" t="n">
-        <v>3</v>
-      </c>
-      <c r="H120" t="n">
-        <v>4</v>
-      </c>
-      <c r="I120" t="inlineStr">
-        <is>
-          <t>334</t>
-        </is>
-      </c>
-      <c r="J120" t="inlineStr">
-        <is>
-          <t>Finalizando en Buen estado</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>UR022_2</t>
-        </is>
-      </c>
-      <c r="B121" t="n">
-        <v>0.994530537830447</v>
-      </c>
-      <c r="C121" t="n">
-        <v>0</v>
-      </c>
-      <c r="D121" t="n">
-        <v>0</v>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>CANCELADO</t>
-        </is>
-      </c>
-      <c r="F121" t="n">
-        <v>3</v>
-      </c>
-      <c r="G121" t="n">
-        <v>1</v>
-      </c>
-      <c r="H121" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" t="inlineStr">
-        <is>
-          <t>311</t>
-        </is>
-      </c>
-      <c r="J121" t="inlineStr">
-        <is>
-          <t>Necesitara Extensión o Desembolso Abrupto</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>UR023_1</t>
-        </is>
-      </c>
-      <c r="B122" t="n">
-        <v>0.199315068493151</v>
-      </c>
-      <c r="C122" t="n">
-        <v>3</v>
-      </c>
-      <c r="D122" t="n">
-        <v>1</v>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>VIGENTE</t>
-        </is>
-      </c>
-      <c r="F122" t="n">
-        <v>1</v>
-      </c>
-      <c r="G122" t="n">
-        <v>3</v>
-      </c>
-      <c r="H122" t="n">
-        <v>4</v>
-      </c>
-      <c r="I122" t="inlineStr">
-        <is>
-          <t>134</t>
-        </is>
-      </c>
-      <c r="J122" t="inlineStr">
-        <is>
-          <t>Desembolso Anticipado</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>UR023_2</t>
-        </is>
-      </c>
-      <c r="B123" t="n">
-        <v>0.199315068493151</v>
-      </c>
-      <c r="C123" t="n">
-        <v>1</v>
-      </c>
-      <c r="D123" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>VIGENTE</t>
-        </is>
-      </c>
-      <c r="F123" t="n">
-        <v>1</v>
-      </c>
-      <c r="G123" t="n">
-        <v>2</v>
-      </c>
-      <c r="H123" t="n">
-        <v>2</v>
-      </c>
-      <c r="I123" t="inlineStr">
-        <is>
-          <t>122</t>
-        </is>
-      </c>
-      <c r="J123" t="inlineStr">
-        <is>
-          <t>Proyecto Joven</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>UR024_1</t>
-        </is>
-      </c>
-      <c r="B124" t="n">
-        <v>0.203281677301732</v>
-      </c>
-      <c r="C124" t="n">
-        <v>2</v>
-      </c>
-      <c r="D124" t="n">
-        <v>0.989033333333333</v>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>VIGENTE</t>
-        </is>
-      </c>
-      <c r="F124" t="n">
-        <v>2</v>
-      </c>
-      <c r="G124" t="n">
-        <v>2</v>
-      </c>
-      <c r="H124" t="n">
-        <v>3</v>
-      </c>
-      <c r="I124" t="inlineStr">
-        <is>
-          <t>223</t>
-        </is>
-      </c>
-      <c r="J124" t="inlineStr">
-        <is>
-          <t>Desembolso Anticipado</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>UR024_2</t>
-        </is>
-      </c>
-      <c r="B125" t="n">
-        <v>0.203281677301732</v>
-      </c>
-      <c r="C125" t="n">
-        <v>0</v>
-      </c>
-      <c r="D125" t="n">
-        <v>0</v>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>SIN ACTIVAR</t>
-        </is>
-      </c>
-      <c r="F125" t="n">
-        <v>2</v>
-      </c>
-      <c r="G125" t="n">
-        <v>1</v>
-      </c>
-      <c r="H125" t="n">
-        <v>1</v>
-      </c>
-      <c r="I125" t="inlineStr">
-        <is>
-          <t>211</t>
-        </is>
-      </c>
-      <c r="J125" t="inlineStr">
-        <is>
-          <t>Proyecto Joven</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>UR025_1</t>
-        </is>
-      </c>
-      <c r="B126" t="n">
-        <v>0</v>
-      </c>
-      <c r="C126" t="n">
-        <v>0</v>
-      </c>
-      <c r="D126" t="n">
-        <v>0</v>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>VIGENTE</t>
-        </is>
-      </c>
-      <c r="F126" t="n">
-        <v>1</v>
-      </c>
-      <c r="G126" t="n">
-        <v>1</v>
-      </c>
-      <c r="H126" t="n">
-        <v>1</v>
-      </c>
-      <c r="I126" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="J126" t="inlineStr">
-        <is>
-          <t>Proyecto Joven</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>UR025_2</t>
-        </is>
-      </c>
-      <c r="B127" t="n">
-        <v>0</v>
-      </c>
-      <c r="C127" t="n">
-        <v>0</v>
-      </c>
-      <c r="D127" t="n">
-        <v>0</v>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>SIN ACTIVAR</t>
-        </is>
-      </c>
-      <c r="F127" t="n">
-        <v>1</v>
-      </c>
-      <c r="G127" t="n">
-        <v>1</v>
-      </c>
-      <c r="H127" t="n">
-        <v>1</v>
-      </c>
-      <c r="I127" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="J127" t="inlineStr">
-        <is>
-          <t>Proyecto Joven</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>UR025_3</t>
-        </is>
-      </c>
-      <c r="B128" t="n">
-        <v>0</v>
-      </c>
-      <c r="C128" t="n">
-        <v>0</v>
-      </c>
-      <c r="D128" t="n">
-        <v>0</v>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>SIN ACTIVAR</t>
-        </is>
-      </c>
-      <c r="F128" t="n">
-        <v>1</v>
-      </c>
-      <c r="G128" t="n">
-        <v>1</v>
-      </c>
-      <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="J128" t="inlineStr">
-        <is>
-          <t>Proyecto Joven</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>UR025_4</t>
-        </is>
-      </c>
-      <c r="B129" t="n">
-        <v>0</v>
-      </c>
-      <c r="C129" t="n">
-        <v>0</v>
-      </c>
-      <c r="D129" t="n">
-        <v>0</v>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>SIN ACTIVAR</t>
-        </is>
-      </c>
-      <c r="F129" t="n">
-        <v>1</v>
-      </c>
-      <c r="G129" t="n">
-        <v>1</v>
-      </c>
-      <c r="H129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I129" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="J129" t="inlineStr">
         <is>
           <t>Proyecto Joven</t>
         </is>
